--- a/su-e-40.02.15.08.05-2022.xlsx
+++ b/su-e-40.02.15.08.05-2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\BB\SHAPE\03_Statistiken\03_3 SE\0800 OutputDiffusion\03Auskunftsdienst\0305ProdTGP\TGP_pooling xx22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rade/Studium/Master HSLU/MSc HSLU SEM1/RB/r-bootcamp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206E682F-BF90-4858-98D8-35FFAAB12ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A146AD-8980-1C46-8297-2E060192BD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="13910" windowHeight="9240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16860" yWindow="500" windowWidth="21540" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Districts" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="189">
   <si>
     <t>ZH</t>
   </si>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>© FSO 2024</t>
+  </si>
+  <si>
+    <t>DistrictId</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,6 +708,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE8EAF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,12 +883,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -888,22 +897,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -912,16 +921,16 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -936,13 +945,13 @@
     <xf numFmtId="166" fontId="9" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="8" fillId="4" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -969,31 +978,35 @@
     <xf numFmtId="169" fontId="9" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1015,9 +1028,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1055,9 +1068,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1090,26 +1103,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1142,26 +1138,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1338,32 +1317,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:K160"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="179" zoomScaleNormal="179" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.4140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="37" customWidth="1"/>
     <col min="2" max="2" width="12.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.08203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10" style="3" customWidth="1"/>
     <col min="6" max="6" width="8.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.08203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.08203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10" style="3" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.08203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10" style="3" customWidth="1"/>
     <col min="12" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A1" s="36"/>
       <c r="B1" s="12" t="s">
         <v>186</v>
       </c>
@@ -1379,7 +1359,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="2:11" s="1" customFormat="1" ht="11.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A2" s="36"/>
       <c r="B2" s="15" t="s">
         <v>173</v>
       </c>
@@ -1393,7 +1374,7 @@
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
     </row>
-    <row r="3" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -1405,29 +1386,32 @@
       <c r="J3" s="17"/>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="40" t="s">
+    <row r="4" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="42" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42" t="s">
+      <c r="G4" s="43"/>
+      <c r="H4" s="44" t="s">
         <v>183</v>
       </c>
-      <c r="I4" s="41"/>
-      <c r="J4" s="42" t="s">
+      <c r="I4" s="43"/>
+      <c r="J4" s="44" t="s">
         <v>184</v>
       </c>
-      <c r="K4" s="40"/>
-    </row>
-    <row r="5" spans="2:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
+      <c r="K4" s="42"/>
+    </row>
+    <row r="5" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="5" t="s">
         <v>170</v>
       </c>
@@ -1453,7 +1437,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B6" s="7" t="s">
         <v>174</v>
       </c>
@@ -1483,7 +1467,10 @@
         <v>0.28440370174565482</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="37">
+        <v>101</v>
+      </c>
       <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
@@ -1515,7 +1502,10 @@
         <v>4.3977438489247271</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="37">
+        <v>102</v>
+      </c>
       <c r="B8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1537,10 @@
         <v>6.1797826307992496</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="37">
+        <v>103</v>
+      </c>
       <c r="B9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1572,10 @@
         <v>2.8957023208324721</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="37">
+        <v>104</v>
+      </c>
       <c r="B10" s="8" t="s">
         <v>0</v>
       </c>
@@ -1611,7 +1607,10 @@
         <v>4.0315208265505786</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="37">
+        <v>105</v>
+      </c>
       <c r="B11" s="8" t="s">
         <v>0</v>
       </c>
@@ -1643,7 +1642,10 @@
         <v>3.8738546448819333</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="37">
+        <v>106</v>
+      </c>
       <c r="B12" s="8" t="s">
         <v>0</v>
       </c>
@@ -1675,7 +1677,10 @@
         <v>2.7909292847612215</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="37">
+        <v>107</v>
+      </c>
       <c r="B13" s="8" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +1712,10 @@
         <v>2.9578867740508703</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="37">
+        <v>108</v>
+      </c>
       <c r="B14" s="8" t="s">
         <v>0</v>
       </c>
@@ -1739,7 +1747,10 @@
         <v>4.6809193297432747</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="37">
+        <v>109</v>
+      </c>
       <c r="B15" s="8" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1782,10 @@
         <v>2.8987660224587652</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="37">
+        <v>110</v>
+      </c>
       <c r="B16" s="8" t="s">
         <v>0</v>
       </c>
@@ -1803,7 +1817,10 @@
         <v>2.2170897636124418</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="37">
+        <v>111</v>
+      </c>
       <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
@@ -1835,7 +1852,10 @@
         <v>3.9493159029432499</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="37">
+        <v>112</v>
+      </c>
       <c r="B18" s="8" t="s">
         <v>0</v>
       </c>
@@ -1867,7 +1887,10 @@
         <v>1.0008424829206142</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="37">
+        <v>241</v>
+      </c>
       <c r="B19" s="8" t="s">
         <v>13</v>
       </c>
@@ -1899,7 +1922,10 @@
         <v>6.5953017290256426</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="37">
+        <v>242</v>
+      </c>
       <c r="B20" s="8" t="s">
         <v>13</v>
       </c>
@@ -1931,7 +1957,10 @@
         <v>3.9153190316370088</v>
       </c>
     </row>
-    <row r="21" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="37">
+        <v>243</v>
+      </c>
       <c r="B21" s="8" t="s">
         <v>13</v>
       </c>
@@ -1963,7 +1992,10 @@
         <v>4.3294495100181249</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="37">
+        <v>244</v>
+      </c>
       <c r="B22" s="8" t="s">
         <v>13</v>
       </c>
@@ -1995,7 +2027,10 @@
         <v>4.3653102498010128</v>
       </c>
     </row>
-    <row r="23" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="37">
+        <v>245</v>
+      </c>
       <c r="B23" s="8" t="s">
         <v>13</v>
       </c>
@@ -2027,7 +2062,10 @@
         <v>4.0405672065088165</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="37">
+        <v>246</v>
+      </c>
       <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
@@ -2059,7 +2097,10 @@
         <v>1.392390292415584</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="37">
+        <v>247</v>
+      </c>
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
@@ -2091,7 +2132,10 @@
         <v>3.5739109434437561</v>
       </c>
     </row>
-    <row r="26" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="37">
+        <v>248</v>
+      </c>
       <c r="B26" s="8" t="s">
         <v>13</v>
       </c>
@@ -2123,7 +2167,10 @@
         <v>10.464683315879826</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="37">
+        <v>249</v>
+      </c>
       <c r="B27" s="8" t="s">
         <v>13</v>
       </c>
@@ -2155,7 +2202,10 @@
         <v>6.6489373355732804</v>
       </c>
     </row>
-    <row r="28" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="37">
+        <v>250</v>
+      </c>
       <c r="B28" s="8" t="s">
         <v>13</v>
       </c>
@@ -2187,7 +2237,10 @@
         <v>5.8015899677703864</v>
       </c>
     </row>
-    <row r="29" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="37">
+        <v>311</v>
+      </c>
       <c r="B29" s="8" t="s">
         <v>24</v>
       </c>
@@ -2219,7 +2272,10 @@
         <v>2.4637471882429596</v>
       </c>
     </row>
-    <row r="30" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="37">
+        <v>312</v>
+      </c>
       <c r="B30" s="8" t="s">
         <v>24</v>
       </c>
@@ -2251,7 +2307,10 @@
         <v>2.3380026038347124</v>
       </c>
     </row>
-    <row r="31" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="37">
+        <v>313</v>
+      </c>
       <c r="B31" s="8" t="s">
         <v>24</v>
       </c>
@@ -2283,7 +2342,10 @@
         <v>3.2681566548608219</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="37">
+        <v>314</v>
+      </c>
       <c r="B32" s="8" t="s">
         <v>24</v>
       </c>
@@ -2315,7 +2377,10 @@
         <v>2.8741874612477933</v>
       </c>
     </row>
-    <row r="33" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="37">
+        <v>315</v>
+      </c>
       <c r="B33" s="8" t="s">
         <v>24</v>
       </c>
@@ -2347,7 +2412,10 @@
         <v>3.9472363160472819</v>
       </c>
     </row>
-    <row r="34" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="37">
+        <v>316</v>
+      </c>
       <c r="B34" s="8" t="s">
         <v>24</v>
       </c>
@@ -2379,7 +2447,10 @@
         <v>6.7379757920325103</v>
       </c>
     </row>
-    <row r="35" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="37">
+        <v>400</v>
+      </c>
       <c r="B35" s="8" t="s">
         <v>31</v>
       </c>
@@ -2411,7 +2482,10 @@
         <v>5.7967262862797435</v>
       </c>
     </row>
-    <row r="36" spans="2:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="37">
+        <v>501</v>
+      </c>
       <c r="B36" s="8" t="s">
         <v>33</v>
       </c>
@@ -2443,7 +2517,10 @@
         <v>10.096785427529536</v>
       </c>
     </row>
-    <row r="37" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="37">
+        <v>502</v>
+      </c>
       <c r="B37" s="8" t="s">
         <v>33</v>
       </c>
@@ -2475,7 +2552,10 @@
         <v>21.411410024333801</v>
       </c>
     </row>
-    <row r="38" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="37">
+        <v>503</v>
+      </c>
       <c r="B38" s="8" t="s">
         <v>33</v>
       </c>
@@ -2507,7 +2587,10 @@
         <v>5.5200614094809932</v>
       </c>
     </row>
-    <row r="39" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="37">
+        <v>504</v>
+      </c>
       <c r="B39" s="8" t="s">
         <v>33</v>
       </c>
@@ -2539,7 +2622,10 @@
         <v>9.055521465624027</v>
       </c>
     </row>
-    <row r="40" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="37">
+        <v>505</v>
+      </c>
       <c r="B40" s="8" t="s">
         <v>33</v>
       </c>
@@ -2571,7 +2657,10 @@
         <v>5.4321623787648345</v>
       </c>
     </row>
-    <row r="41" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="37">
+        <v>506</v>
+      </c>
       <c r="B41" s="8" t="s">
         <v>33</v>
       </c>
@@ -2603,7 +2692,10 @@
         <v>5.07200553090013</v>
       </c>
     </row>
-    <row r="42" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="37">
+        <v>600</v>
+      </c>
       <c r="B42" s="8" t="s">
         <v>40</v>
       </c>
@@ -2635,7 +2727,10 @@
         <v>5.3499405003169196</v>
       </c>
     </row>
-    <row r="43" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="37">
+        <v>700</v>
+      </c>
       <c r="B43" s="8" t="s">
         <v>42</v>
       </c>
@@ -2667,7 +2762,10 @@
         <v>4.5286674319647062</v>
       </c>
     </row>
-    <row r="44" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="37">
+        <v>800</v>
+      </c>
       <c r="B44" s="8" t="s">
         <v>44</v>
       </c>
@@ -2699,7 +2797,10 @@
         <v>5.668868374266343</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="37">
+        <v>900</v>
+      </c>
       <c r="B45" s="8" t="s">
         <v>46</v>
       </c>
@@ -2731,7 +2832,10 @@
         <v>1.478355597669329</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="37">
+        <v>1001</v>
+      </c>
       <c r="B46" s="8" t="s">
         <v>48</v>
       </c>
@@ -2763,7 +2867,10 @@
         <v>7.5272647312967802</v>
       </c>
     </row>
-    <row r="47" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="37">
+        <v>1002</v>
+      </c>
       <c r="B47" s="8" t="s">
         <v>48</v>
       </c>
@@ -2795,7 +2902,10 @@
         <v>9.1782850227856745</v>
       </c>
     </row>
-    <row r="48" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="37">
+        <v>1003</v>
+      </c>
       <c r="B48" s="8" t="s">
         <v>48</v>
       </c>
@@ -2827,7 +2937,10 @@
         <v>5.625858539687707</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="37">
+        <v>1004</v>
+      </c>
       <c r="B49" s="8" t="s">
         <v>48</v>
       </c>
@@ -2859,7 +2972,10 @@
         <v>3.5057883058589794</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="37">
+        <v>1005</v>
+      </c>
       <c r="B50" s="8" t="s">
         <v>48</v>
       </c>
@@ -2891,7 +3007,10 @@
         <v>6.090705633138036</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="37">
+        <v>1006</v>
+      </c>
       <c r="B51" s="8" t="s">
         <v>48</v>
       </c>
@@ -2923,7 +3042,10 @@
         <v>5.9739357869442422</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="37">
+        <v>1007</v>
+      </c>
       <c r="B52" s="8" t="s">
         <v>48</v>
       </c>
@@ -2955,7 +3077,10 @@
         <v>9.011287795452624</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="37">
+        <v>1101</v>
+      </c>
       <c r="B53" s="8" t="s">
         <v>56</v>
       </c>
@@ -2987,7 +3112,10 @@
         <v>9.5541710181830641</v>
       </c>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="37">
+        <v>1102</v>
+      </c>
       <c r="B54" s="8" t="s">
         <v>56</v>
       </c>
@@ -3019,7 +3147,10 @@
         <v>11.338390163099632</v>
       </c>
     </row>
-    <row r="55" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="37">
+        <v>1103</v>
+      </c>
       <c r="B55" s="8" t="s">
         <v>56</v>
       </c>
@@ -3051,7 +3182,10 @@
         <v>13.07091434878479</v>
       </c>
     </row>
-    <row r="56" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="37">
+        <v>1104</v>
+      </c>
       <c r="B56" s="8" t="s">
         <v>56</v>
       </c>
@@ -3083,7 +3217,10 @@
         <v>7.5248489887747656</v>
       </c>
     </row>
-    <row r="57" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="37">
+        <v>1105</v>
+      </c>
       <c r="B57" s="8" t="s">
         <v>56</v>
       </c>
@@ -3115,7 +3252,10 @@
         <v>8.1284580438585721</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="37">
+        <v>1106</v>
+      </c>
       <c r="B58" s="8" t="s">
         <v>56</v>
       </c>
@@ -3147,7 +3287,10 @@
         <v>5.4551508737979786</v>
       </c>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="37">
+        <v>1107</v>
+      </c>
       <c r="B59" s="8" t="s">
         <v>56</v>
       </c>
@@ -3179,7 +3322,10 @@
         <v>5.834895132056225</v>
       </c>
     </row>
-    <row r="60" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="37">
+        <v>1108</v>
+      </c>
       <c r="B60" s="8" t="s">
         <v>56</v>
       </c>
@@ -3211,7 +3357,10 @@
         <v>5.0539386747591442</v>
       </c>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="37">
+        <v>1109</v>
+      </c>
       <c r="B61" s="8" t="s">
         <v>56</v>
       </c>
@@ -3243,7 +3392,10 @@
         <v>7.6547890186332461</v>
       </c>
     </row>
-    <row r="62" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="37">
+        <v>1110</v>
+      </c>
       <c r="B62" s="8" t="s">
         <v>56</v>
       </c>
@@ -3275,7 +3427,10 @@
         <v>10.440408049568145</v>
       </c>
     </row>
-    <row r="63" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="37">
+        <v>1200</v>
+      </c>
       <c r="B63" s="8" t="s">
         <v>67</v>
       </c>
@@ -3307,7 +3462,10 @@
         <v>1.7426966787416851</v>
       </c>
     </row>
-    <row r="64" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="37">
+        <v>1301</v>
+      </c>
       <c r="B64" s="8" t="s">
         <v>69</v>
       </c>
@@ -3339,7 +3497,10 @@
         <v>2.4255796278235482</v>
       </c>
     </row>
-    <row r="65" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="37">
+        <v>1302</v>
+      </c>
       <c r="B65" s="8" t="s">
         <v>69</v>
       </c>
@@ -3371,7 +3532,10 @@
         <v>8.7901277208000099</v>
       </c>
     </row>
-    <row r="66" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="37">
+        <v>1303</v>
+      </c>
       <c r="B66" s="8" t="s">
         <v>69</v>
       </c>
@@ -3403,7 +3567,10 @@
         <v>4.8456936753945588</v>
       </c>
     </row>
-    <row r="67" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="37">
+        <v>1304</v>
+      </c>
       <c r="B67" s="8" t="s">
         <v>69</v>
       </c>
@@ -3435,7 +3602,10 @@
         <v>6.3378568666886173</v>
       </c>
     </row>
-    <row r="68" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="37">
+        <v>1305</v>
+      </c>
       <c r="B68" s="8" t="s">
         <v>69</v>
       </c>
@@ -3467,7 +3637,10 @@
         <v>9.851232286024004</v>
       </c>
     </row>
-    <row r="69" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="37">
+        <v>1401</v>
+      </c>
       <c r="B69" s="8" t="s">
         <v>75</v>
       </c>
@@ -3499,7 +3672,10 @@
         <v>17.657039824638776</v>
       </c>
     </row>
-    <row r="70" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="37">
+        <v>1402</v>
+      </c>
       <c r="B70" s="8" t="s">
         <v>75</v>
       </c>
@@ -3531,7 +3707,10 @@
         <v>11.722375327912964</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="37">
+        <v>1403</v>
+      </c>
       <c r="B71" s="8" t="s">
         <v>75</v>
       </c>
@@ -3563,7 +3742,10 @@
         <v>4.6209744640145676</v>
       </c>
     </row>
-    <row r="72" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="37">
+        <v>1404</v>
+      </c>
       <c r="B72" s="8" t="s">
         <v>75</v>
       </c>
@@ -3595,7 +3777,10 @@
         <v>26.0473332278447</v>
       </c>
     </row>
-    <row r="73" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="37">
+        <v>1405</v>
+      </c>
       <c r="B73" s="8" t="s">
         <v>75</v>
       </c>
@@ -3627,7 +3812,10 @@
         <v>15.432896818006764</v>
       </c>
     </row>
-    <row r="74" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="37">
+        <v>1406</v>
+      </c>
       <c r="B74" s="8" t="s">
         <v>75</v>
       </c>
@@ -3659,7 +3847,10 @@
         <v>17.304025168133364</v>
       </c>
     </row>
-    <row r="75" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="37">
+        <v>1501</v>
+      </c>
       <c r="B75" s="8" t="s">
         <v>82</v>
       </c>
@@ -3691,7 +3882,10 @@
         <v>7.9758646331599987</v>
       </c>
     </row>
-    <row r="76" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="37">
+        <v>1502</v>
+      </c>
       <c r="B76" s="8" t="s">
         <v>82</v>
       </c>
@@ -3723,7 +3917,10 @@
         <v>8.0252960670760718</v>
       </c>
     </row>
-    <row r="77" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="37">
+        <v>1503</v>
+      </c>
       <c r="B77" s="8" t="s">
         <v>82</v>
       </c>
@@ -3755,7 +3952,10 @@
         <v>9.6773260829648429</v>
       </c>
     </row>
-    <row r="78" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="37">
+        <v>1600</v>
+      </c>
       <c r="B78" s="8" t="s">
         <v>86</v>
       </c>
@@ -3787,7 +3987,10 @@
         <v>8.4577974558688798</v>
       </c>
     </row>
-    <row r="79" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="37">
+        <v>1721</v>
+      </c>
       <c r="B79" s="8" t="s">
         <v>88</v>
       </c>
@@ -3819,7 +4022,10 @@
         <v>3.3118244311660154</v>
       </c>
     </row>
-    <row r="80" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="37">
+        <v>1722</v>
+      </c>
       <c r="B80" s="8" t="s">
         <v>88</v>
       </c>
@@ -3851,7 +4057,10 @@
         <v>5.9019341780039545</v>
       </c>
     </row>
-    <row r="81" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="37">
+        <v>1723</v>
+      </c>
       <c r="B81" s="8" t="s">
         <v>88</v>
       </c>
@@ -3883,7 +4092,10 @@
         <v>4.8656298630864745</v>
       </c>
     </row>
-    <row r="82" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="37">
+        <v>1724</v>
+      </c>
       <c r="B82" s="8" t="s">
         <v>88</v>
       </c>
@@ -3915,7 +4127,10 @@
         <v>6.2882972376552821</v>
       </c>
     </row>
-    <row r="83" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="37">
+        <v>1725</v>
+      </c>
       <c r="B83" s="8" t="s">
         <v>88</v>
       </c>
@@ -3947,7 +4162,10 @@
         <v>6.2492536122880811</v>
       </c>
     </row>
-    <row r="84" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="37">
+        <v>1726</v>
+      </c>
       <c r="B84" s="8" t="s">
         <v>88</v>
       </c>
@@ -3979,7 +4197,10 @@
         <v>4.65721918683212</v>
       </c>
     </row>
-    <row r="85" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="37">
+        <v>1727</v>
+      </c>
       <c r="B85" s="8" t="s">
         <v>88</v>
       </c>
@@ -4011,7 +4232,10 @@
         <v>6.4594254612452415</v>
       </c>
     </row>
-    <row r="86" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="37">
+        <v>1728</v>
+      </c>
       <c r="B86" s="8" t="s">
         <v>88</v>
       </c>
@@ -4043,7 +4267,10 @@
         <v>4.6422285695761447</v>
       </c>
     </row>
-    <row r="87" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="37">
+        <v>1841</v>
+      </c>
       <c r="B87" s="8" t="s">
         <v>97</v>
       </c>
@@ -4075,7 +4302,10 @@
         <v>14.384847993701458</v>
       </c>
     </row>
-    <row r="88" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="37">
+        <v>1842</v>
+      </c>
       <c r="B88" s="8" t="s">
         <v>97</v>
       </c>
@@ -4107,7 +4337,10 @@
         <v>19.218387093197709</v>
       </c>
     </row>
-    <row r="89" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="37">
+        <v>1843</v>
+      </c>
       <c r="B89" s="8" t="s">
         <v>97</v>
       </c>
@@ -4139,7 +4372,10 @@
         <v>13.281531095945329</v>
       </c>
     </row>
-    <row r="90" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="37">
+        <v>1844</v>
+      </c>
       <c r="B90" s="8" t="s">
         <v>97</v>
       </c>
@@ -4171,7 +4407,10 @@
         <v>8.0749490545116167</v>
       </c>
     </row>
-    <row r="91" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="37">
+        <v>1845</v>
+      </c>
       <c r="B91" s="8" t="s">
         <v>97</v>
       </c>
@@ -4203,7 +4442,10 @@
         <v>7.6019564015232524</v>
       </c>
     </row>
-    <row r="92" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="37">
+        <v>1846</v>
+      </c>
       <c r="B92" s="8" t="s">
         <v>97</v>
       </c>
@@ -4235,7 +4477,10 @@
         <v>8.4417791319458573</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="37">
+        <v>1847</v>
+      </c>
       <c r="B93" s="8" t="s">
         <v>97</v>
       </c>
@@ -4267,7 +4512,10 @@
         <v>14.265476179680876</v>
       </c>
     </row>
-    <row r="94" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="37">
+        <v>1848</v>
+      </c>
       <c r="B94" s="8" t="s">
         <v>97</v>
       </c>
@@ -4299,7 +4547,10 @@
         <v>5.5966270997491954</v>
       </c>
     </row>
-    <row r="95" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="37">
+        <v>1849</v>
+      </c>
       <c r="B95" s="8" t="s">
         <v>97</v>
       </c>
@@ -4331,7 +4582,10 @@
         <v>7.4691009964067909</v>
       </c>
     </row>
-    <row r="96" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="37">
+        <v>1850</v>
+      </c>
       <c r="B96" s="8" t="s">
         <v>97</v>
       </c>
@@ -4363,7 +4617,10 @@
         <v>8.8493128517545383</v>
       </c>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="37">
+        <v>1851</v>
+      </c>
       <c r="B97" s="8" t="s">
         <v>97</v>
       </c>
@@ -4395,7 +4652,10 @@
         <v>10.840574104578957</v>
       </c>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="37">
+        <v>1901</v>
+      </c>
       <c r="B98" s="8" t="s">
         <v>98</v>
       </c>
@@ -4427,7 +4687,10 @@
         <v>2.7519698184259052</v>
       </c>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="37">
+        <v>1902</v>
+      </c>
       <c r="B99" s="8" t="s">
         <v>98</v>
       </c>
@@ -4459,7 +4722,10 @@
         <v>2.020370694302827</v>
       </c>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="37">
+        <v>1903</v>
+      </c>
       <c r="B100" s="8" t="s">
         <v>98</v>
       </c>
@@ -4491,7 +4757,10 @@
         <v>2.9856438800450311</v>
       </c>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="37">
+        <v>1904</v>
+      </c>
       <c r="B101" s="8" t="s">
         <v>98</v>
       </c>
@@ -4523,7 +4792,10 @@
         <v>3.683186555657227</v>
       </c>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="37">
+        <v>1905</v>
+      </c>
       <c r="B102" s="8" t="s">
         <v>98</v>
       </c>
@@ -4555,7 +4827,10 @@
         <v>4.5544011108796854</v>
       </c>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="37">
+        <v>1906</v>
+      </c>
       <c r="B103" s="8" t="s">
         <v>98</v>
       </c>
@@ -4587,7 +4862,10 @@
         <v>4.5665216946784817</v>
       </c>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="37">
+        <v>1907</v>
+      </c>
       <c r="B104" s="8" t="s">
         <v>98</v>
       </c>
@@ -4619,7 +4897,10 @@
         <v>3.2170694999246288</v>
       </c>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="37">
+        <v>1908</v>
+      </c>
       <c r="B105" s="8" t="s">
         <v>98</v>
       </c>
@@ -4651,7 +4932,10 @@
         <v>4.4281700726342956</v>
       </c>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="37">
+        <v>1909</v>
+      </c>
       <c r="B106" s="8" t="s">
         <v>98</v>
       </c>
@@ -4683,7 +4967,10 @@
         <v>3.7341355306657902</v>
       </c>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="37">
+        <v>1910</v>
+      </c>
       <c r="B107" s="8" t="s">
         <v>98</v>
       </c>
@@ -4715,7 +5002,10 @@
         <v>3.2415115490625834</v>
       </c>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="37">
+        <v>1911</v>
+      </c>
       <c r="B108" s="8" t="s">
         <v>98</v>
       </c>
@@ -4747,7 +5037,10 @@
         <v>4.7501750149760307</v>
       </c>
     </row>
-    <row r="109" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="37">
+        <v>2011</v>
+      </c>
       <c r="B109" s="8" t="s">
         <v>110</v>
       </c>
@@ -4779,7 +5072,10 @@
         <v>3.7678482787208014</v>
       </c>
     </row>
-    <row r="110" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="37">
+        <v>2012</v>
+      </c>
       <c r="B110" s="8" t="s">
         <v>110</v>
       </c>
@@ -4811,7 +5107,10 @@
         <v>3.0917814386425082</v>
       </c>
     </row>
-    <row r="111" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="37">
+        <v>2013</v>
+      </c>
       <c r="B111" s="8" t="s">
         <v>110</v>
       </c>
@@ -4843,7 +5142,10 @@
         <v>3.3991961188234971</v>
       </c>
     </row>
-    <row r="112" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="37">
+        <v>2014</v>
+      </c>
       <c r="B112" s="8" t="s">
         <v>110</v>
       </c>
@@ -4875,7 +5177,10 @@
         <v>3.9971942522735269</v>
       </c>
     </row>
-    <row r="113" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="37">
+        <v>2015</v>
+      </c>
       <c r="B113" s="8" t="s">
         <v>110</v>
       </c>
@@ -4907,7 +5212,10 @@
         <v>3.7471188667752284</v>
       </c>
     </row>
-    <row r="114" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="37">
+        <v>2101</v>
+      </c>
       <c r="B114" s="8" t="s">
         <v>116</v>
       </c>
@@ -4939,7 +5247,10 @@
         <v>3.9660403022150996</v>
       </c>
     </row>
-    <row r="115" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="37">
+        <v>2102</v>
+      </c>
       <c r="B115" s="8" t="s">
         <v>116</v>
       </c>
@@ -4971,7 +5282,10 @@
         <v>12.736746731035197</v>
       </c>
     </row>
-    <row r="116" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="37">
+        <v>2103</v>
+      </c>
       <c r="B116" s="8" t="s">
         <v>116</v>
       </c>
@@ -5003,7 +5317,10 @@
         <v>11.146354259609009</v>
       </c>
     </row>
-    <row r="117" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="37">
+        <v>2104</v>
+      </c>
       <c r="B117" s="8" t="s">
         <v>116</v>
       </c>
@@ -5035,7 +5352,10 @@
         <v>3.4962964581851712</v>
       </c>
     </row>
-    <row r="118" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="37">
+        <v>2105</v>
+      </c>
       <c r="B118" s="8" t="s">
         <v>116</v>
       </c>
@@ -5067,7 +5387,10 @@
         <v>2.0050073543696518</v>
       </c>
     </row>
-    <row r="119" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="37">
+        <v>2106</v>
+      </c>
       <c r="B119" s="8" t="s">
         <v>116</v>
       </c>
@@ -5099,7 +5422,10 @@
         <v>4.1002744525002521</v>
       </c>
     </row>
-    <row r="120" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="37">
+        <v>2107</v>
+      </c>
       <c r="B120" s="8" t="s">
         <v>116</v>
       </c>
@@ -5131,7 +5457,10 @@
         <v>11.646116723759205</v>
       </c>
     </row>
-    <row r="121" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="37">
+        <v>2108</v>
+      </c>
       <c r="B121" s="8" t="s">
         <v>116</v>
       </c>
@@ -5163,7 +5492,10 @@
         <v>12.587787940956709</v>
       </c>
     </row>
-    <row r="122" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="37">
+        <v>2221</v>
+      </c>
       <c r="B122" s="8" t="s">
         <v>125</v>
       </c>
@@ -5195,7 +5527,10 @@
         <v>4.6251263450452385</v>
       </c>
     </row>
-    <row r="123" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="37">
+        <v>2222</v>
+      </c>
       <c r="B123" s="8" t="s">
         <v>125</v>
       </c>
@@ -5227,7 +5562,10 @@
         <v>5.0060349759418061</v>
       </c>
     </row>
-    <row r="124" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="37">
+        <v>2223</v>
+      </c>
       <c r="B124" s="8" t="s">
         <v>125</v>
       </c>
@@ -5259,7 +5597,10 @@
         <v>4.0779141017585552</v>
       </c>
     </row>
-    <row r="125" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="37">
+        <v>2224</v>
+      </c>
       <c r="B125" s="8" t="s">
         <v>125</v>
       </c>
@@ -5291,7 +5632,10 @@
         <v>3.2391834439215073</v>
       </c>
     </row>
-    <row r="126" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="37">
+        <v>2225</v>
+      </c>
       <c r="B126" s="8" t="s">
         <v>125</v>
       </c>
@@ -5323,7 +5667,10 @@
         <v>1.5483673828010571</v>
       </c>
     </row>
-    <row r="127" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="37">
+        <v>2226</v>
+      </c>
       <c r="B127" s="8" t="s">
         <v>125</v>
       </c>
@@ -5355,7 +5702,10 @@
         <v>2.8397158147597388</v>
       </c>
     </row>
-    <row r="128" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="37">
+        <v>2227</v>
+      </c>
       <c r="B128" s="8" t="s">
         <v>125</v>
       </c>
@@ -5387,7 +5737,10 @@
         <v>2.7048517744310931</v>
       </c>
     </row>
-    <row r="129" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="37">
+        <v>2228</v>
+      </c>
       <c r="B129" s="8" t="s">
         <v>125</v>
       </c>
@@ -5419,7 +5772,10 @@
         <v>2.2837445263462737</v>
       </c>
     </row>
-    <row r="130" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="37">
+        <v>2229</v>
+      </c>
       <c r="B130" s="8" t="s">
         <v>125</v>
       </c>
@@ -5451,7 +5807,10 @@
         <v>3.3743920789533051</v>
       </c>
     </row>
-    <row r="131" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="37">
+        <v>2230</v>
+      </c>
       <c r="B131" s="8" t="s">
         <v>125</v>
       </c>
@@ -5483,7 +5842,10 @@
         <v>2.7631187128301415</v>
       </c>
     </row>
-    <row r="132" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="37">
+        <v>2301</v>
+      </c>
       <c r="B132" s="8" t="s">
         <v>136</v>
       </c>
@@ -5515,7 +5877,10 @@
         <v>6.9894816400634996</v>
       </c>
     </row>
-    <row r="133" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="37">
+        <v>2302</v>
+      </c>
       <c r="B133" s="8" t="s">
         <v>136</v>
       </c>
@@ -5547,7 +5912,10 @@
         <v>7.467628337296718</v>
       </c>
     </row>
-    <row r="134" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="37">
+        <v>2303</v>
+      </c>
       <c r="B134" s="8" t="s">
         <v>136</v>
       </c>
@@ -5579,7 +5947,10 @@
         <v>9.3458603785963028</v>
       </c>
     </row>
-    <row r="135" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="37">
+        <v>2304</v>
+      </c>
       <c r="B135" s="8" t="s">
         <v>136</v>
       </c>
@@ -5611,7 +5982,10 @@
         <v>19.175205707319531</v>
       </c>
     </row>
-    <row r="136" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="37">
+        <v>2305</v>
+      </c>
       <c r="B136" s="8" t="s">
         <v>136</v>
       </c>
@@ -5643,7 +6017,10 @@
         <v>11.203783514500286</v>
       </c>
     </row>
-    <row r="137" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="37">
+        <v>2306</v>
+      </c>
       <c r="B137" s="8" t="s">
         <v>136</v>
       </c>
@@ -5675,7 +6052,10 @@
         <v>11.815296200626134</v>
       </c>
     </row>
-    <row r="138" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="37">
+        <v>2307</v>
+      </c>
       <c r="B138" s="8" t="s">
         <v>136</v>
       </c>
@@ -5707,7 +6087,10 @@
         <v>5.9891526230404732</v>
       </c>
     </row>
-    <row r="139" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="37">
+        <v>2308</v>
+      </c>
       <c r="B139" s="8" t="s">
         <v>136</v>
       </c>
@@ -5739,7 +6122,10 @@
         <v>6.0268862449381215</v>
       </c>
     </row>
-    <row r="140" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="37">
+        <v>2309</v>
+      </c>
       <c r="B140" s="8" t="s">
         <v>136</v>
       </c>
@@ -5771,7 +6157,10 @@
         <v>12.327563467160987</v>
       </c>
     </row>
-    <row r="141" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="37">
+        <v>2310</v>
+      </c>
       <c r="B141" s="8" t="s">
         <v>136</v>
       </c>
@@ -5803,7 +6192,10 @@
         <v>12.015931721559834</v>
       </c>
     </row>
-    <row r="142" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="37">
+        <v>2311</v>
+      </c>
       <c r="B142" s="8" t="s">
         <v>136</v>
       </c>
@@ -5835,7 +6227,10 @@
         <v>5.4378288802656076</v>
       </c>
     </row>
-    <row r="143" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="37">
+        <v>2312</v>
+      </c>
       <c r="B143" s="8" t="s">
         <v>136</v>
       </c>
@@ -5867,7 +6262,10 @@
         <v>5.1680469464574799</v>
       </c>
     </row>
-    <row r="144" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="37">
+        <v>2313</v>
+      </c>
       <c r="B144" s="8" t="s">
         <v>136</v>
       </c>
@@ -5899,7 +6297,10 @@
         <v>7.4071326167586475</v>
       </c>
     </row>
-    <row r="145" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="37">
+        <v>2400</v>
+      </c>
       <c r="B145" s="8" t="s">
         <v>150</v>
       </c>
@@ -5931,7 +6332,10 @@
         <v>1.8708554602305127</v>
       </c>
     </row>
-    <row r="146" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="37">
+        <v>2500</v>
+      </c>
       <c r="B146" s="8" t="s">
         <v>151</v>
       </c>
@@ -5963,7 +6367,10 @@
         <v>0.94194280087922089</v>
       </c>
     </row>
-    <row r="147" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="37">
+        <v>2601</v>
+      </c>
       <c r="B147" s="8" t="s">
         <v>153</v>
       </c>
@@ -5995,7 +6402,10 @@
         <v>7.0120174688291161</v>
       </c>
     </row>
-    <row r="148" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="37">
+        <v>2602</v>
+      </c>
       <c r="B148" s="8" t="s">
         <v>153</v>
       </c>
@@ -6027,7 +6437,10 @@
         <v>14.682670442736015</v>
       </c>
     </row>
-    <row r="149" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="37">
+        <v>2603</v>
+      </c>
       <c r="B149" s="9" t="s">
         <v>153</v>
       </c>
@@ -6059,50 +6472,50 @@
         <v>9.4619020453841074</v>
       </c>
     </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B151" s="34" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B152" s="34" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B153" s="18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="154" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B154" s="18" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="155" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B155" s="35" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="156" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B156" s="35" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="157" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B157" s="18" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="158" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B158" s="18" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="159" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B159" s="18"/>
     </row>
-    <row r="160" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B160" s="18" t="s">
         <v>182</v>
       </c>
